--- a/Drogueria/UploadedFiles/Consumo VS Stock.xlsx
+++ b/Drogueria/UploadedFiles/Consumo VS Stock.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0FF869-57E2-4F59-9B5D-0BFA9AAA5CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="InformeConsumoVersusStock (4)" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="307">
   <si>
     <t>Consumo Versus Stock actual</t>
   </si>
@@ -82,13 +81,871 @@
     <t>Frascos</t>
   </si>
   <si>
-    <t>Otro</t>
+    <t>Aciclovir 400 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Acido Acetilsalicilico 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Acido Acetilsalicilico 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Acido Acetilsalicilico Comprimidos 100 Mg</t>
+  </si>
+  <si>
+    <t>Acido Ascorbico 100 mg Comprimidos Masticables</t>
+  </si>
+  <si>
+    <t>Acido Borico 10 g, sobre</t>
+  </si>
+  <si>
+    <t>Sobres</t>
+  </si>
+  <si>
+    <t>Acido Folico 1 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Acido Folico Comprimidos 1 Mg</t>
+  </si>
+  <si>
+    <t>Acido Mefenamico 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Acido Mefenamico Comprimidos 500 Mg</t>
+  </si>
+  <si>
+    <t>Acido Valproico 200 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Acido Valproico 250 mg/ 5 ml Jarabe, frasco 120 ml</t>
+  </si>
+  <si>
+    <t>Acido Valproico 500 mg Comprimidos de Liberacion Prolongada</t>
+  </si>
+  <si>
+    <t>Acido Valproico Comprimidos Con Recubrimiento Enterico 200 Mg</t>
+  </si>
+  <si>
+    <t>Adapaleno 0,1 % Gel Topico , pomo</t>
+  </si>
+  <si>
+    <t>Pomos</t>
+  </si>
+  <si>
+    <t>Alopurinol 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Alprazolam 0,50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Amiodarona Clorhidrato 200 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Amiodarona Clorhidrato Comprimidos 200 Mg</t>
+  </si>
+  <si>
+    <t>Amitriptilina Clorhidrato 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Amitriptilina Clorhidrato Comprimidos 25 Mg</t>
+  </si>
+  <si>
+    <t>Amlodipino Besilato 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Amlodipino Besilato 5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Amlodipino Comprimidos 5 Mg</t>
+  </si>
+  <si>
+    <t>Amoxicilina 500 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Cápsulas</t>
+  </si>
+  <si>
+    <t>Amoxicilina 500 mg/5 ml Polvo Para Suspension Oral , frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Amoxicilina 875 mg/Acido Clavulanico 125 mg , Comprimidos</t>
+  </si>
+  <si>
+    <t>Antiespasmodico cm Atropina0,5 mg/Papaverina 40 mg</t>
+  </si>
+  <si>
+    <t>Anulette Comprimidos</t>
+  </si>
+  <si>
+    <t>Blister</t>
+  </si>
+  <si>
+    <t>Atenolol 50 Mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Atenolol 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Atorvastatina Calcica 20 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Atorvastatina Comprimidos Recubiertos 20 Mg</t>
+  </si>
+  <si>
+    <t>Atropina Sulfato 0,5 mg/Papaverina Clorhidrato 40 mg, comprimidos</t>
+  </si>
+  <si>
+    <t>Atropina Sulfato 1 % Solucion Oftalmica, frasco 10 ml  (prescribe frasco)</t>
+  </si>
+  <si>
+    <t>Azitromicina 400 mg/5ml Suspension Oral , frasco 30 ml</t>
+  </si>
+  <si>
+    <t>Azitromicina 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Bacitracina 500 U.I/Neomicina 5 mg cada 5 g Ungüento Topico ,pomo</t>
+  </si>
+  <si>
+    <t>Bencilpenicilina Benzatina 1.200.000 U.I. Polvo para Suspension Inyectable , frasco ampolla</t>
+  </si>
+  <si>
+    <t>Bengue Pomada</t>
+  </si>
+  <si>
+    <t>Betametasona 0,05 % Crema Topica , pomo</t>
+  </si>
+  <si>
+    <t>Betametasona Fosfato Disodico 4 mg/1 ml, Solucion Inyectable, ampolla</t>
+  </si>
+  <si>
+    <t>Bimatoprost 0,01% / Brimonidina 0,15% / Timolol 0,5% Solucion Oftalmica , frasco 5 ml (1 ml= 20 gotas)</t>
+  </si>
+  <si>
+    <t>Brimonidina 0,2% Solucion Oftalmica, frasco 5 ml (prescribe frasco)</t>
+  </si>
+  <si>
+    <t>Bromuro De Ipratropio 20 mcg/dosis Aerosol Para Inhalacion , 200 dosis (prescribe dosis)</t>
+  </si>
+  <si>
+    <t>Bromuro De Ipratropio Aerosol Para Inhalacion 20 Mcg/Dosis (200 dos)</t>
+  </si>
+  <si>
+    <t>Budesonida 200 mcg/dosis Aerosol Para Inhalacion , 200 dosis (prescribe dosis)</t>
+  </si>
+  <si>
+    <t>Calcio Carbonato 320 mg/Vitamina D 125 U.I, Capsulas</t>
+  </si>
+  <si>
+    <t>Calcio Carbonato 500 mg/Vitamina D 400 U.I, Capsulas</t>
+  </si>
+  <si>
+    <t>Captopril 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Carbamazepina 200 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Carbamazepina Comprimidos 200 Mg</t>
+  </si>
+  <si>
+    <t>Carbonato De Calcio Comprimidos</t>
+  </si>
+  <si>
+    <t>Carvedilol 12,5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Carvedilol 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Carvedilol 6,25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Carvedilol Comprimidos 25 Mg</t>
+  </si>
+  <si>
+    <t>Cefadroxilo 250 mg/5 ml Polvo Para Suspension Oral , frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Cefadroxilo 500 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Celecoxib 200 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Celecoxib Capsulas 200 Mg</t>
+  </si>
+  <si>
+    <t>Cetirizina Diclorhidrato 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Cianocobalamina 100 mcg/1ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Ciclobenzaprina Clorhidrato 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Ciclobenzaprina Clorhidrato 10 Mg Comprimidos Recubiertos</t>
+  </si>
+  <si>
+    <t>Ciprofloxacino 3 mg/Dexametasona 1 mg en 1 ml Suspension Otica frasco 7,5 ml (prescribe frasco)</t>
+  </si>
+  <si>
+    <t>Ciprofloxacino 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Citalopram 20 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Claritromicina 250 mg/5 ml Polvo Para Suspension Oral , frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Claritromicina 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Clobetasol Propionato 0,05% Crema Topica ,pomo</t>
+  </si>
+  <si>
+    <t>Clonazepam 0,5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Clonazepam 2 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Clonazepam Comprimidos 2 Mg</t>
+  </si>
+  <si>
+    <t>Clonixinato de Lisina 100 mg/2 ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Clonixinato de Lisina 125 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Clonixinato De Lisina 125 Mg Comprimidos Recubiertos</t>
+  </si>
+  <si>
+    <t>Clorfenamina 2 mg/5 ml Jarabe , frasco 120 ml</t>
+  </si>
+  <si>
+    <t>Clorfenamina Maleato 4 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Clorfenamina Maleato Comprimidos 4 Mg</t>
+  </si>
+  <si>
+    <t>Cloruro de Potasio 600 mg Comprimidos de Liberacion prolongada</t>
+  </si>
+  <si>
+    <t>Cloruro De Sodio 0,9 % Solucion Inyectable , ampolla 5 ml</t>
+  </si>
+  <si>
+    <t>Cloruro De Sodio 0,9 % Solucion Inyectable , matraz 500 ml</t>
+  </si>
+  <si>
+    <t>Matraces</t>
+  </si>
+  <si>
+    <t>Cloruro De Sodio 0,9 % Solucion Inyectable, ampolla 20 ml</t>
+  </si>
+  <si>
+    <t>Cloruro Potasio cm 600 mg</t>
+  </si>
+  <si>
+    <t>Clotrimazol 1% Crema Topica , pomo</t>
+  </si>
+  <si>
+    <t>Clotrimazol 100 mg Ovulos</t>
+  </si>
+  <si>
+    <t>Óvulos</t>
+  </si>
+  <si>
+    <t>Clotrimazol 500 mg Ovulos</t>
+  </si>
+  <si>
+    <t>Clotrimazol crema 1% tubo 20 grs</t>
+  </si>
+  <si>
+    <t>Cloxacilina 500 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Complejo Hierro III Polimaltosado 50 mg/1 ml Solucion para gotas Orales , frasco 30 ml (1ml=20 gotas=50 mg)</t>
+  </si>
+  <si>
+    <t>Cotrimoxazol 800 mg/160 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Cyclofem Suspension Inyectable (amp)</t>
+  </si>
+  <si>
+    <t>Deltametrina 0,02 g /Piperonil butoxido 2.5 g en 100 ml , Shampoo, frasco 120 ml</t>
+  </si>
+  <si>
+    <t>Deltametrina 0,02 g/Piperonil butoxido 2.5 g en 100 ml , Locion, frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Desloratadina 5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Diazepam 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Diclofenaco 15mg/ml Suspensión para Gotas Orales , frasco 25 ml (1 ml= 20 gotas)</t>
+  </si>
+  <si>
+    <t>Diclofenaco Sodico 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Diclofenaco Sodico 75 mg/3 ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Difenidol Clorhidrato 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Difenidol Comprimidos 25 Mg</t>
+  </si>
+  <si>
+    <t>Digoxina 0,25 mg Comprimido</t>
+  </si>
+  <si>
+    <t>Digoxina Comprimido 0,25 Mg.</t>
+  </si>
+  <si>
+    <t>Dispositivo Intrauterino (TCu)</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Disulfiramo 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Domperidona 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Domperidona 10 mg/1 ml Suspension para Gotas Orales , frasco 20 ml (1ml=20 gotas= 10 mg)</t>
+  </si>
+  <si>
+    <t>Dorzolamida 2% Solucion Oftalmica, frasco 5 ml (1 ml=20 gotas) (prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Dorzolamida 20 mg/ Timolol 5 mg en 1 ml Solucion Oftalmica, frasco 5 ml (1 ml= 20 gotas) (prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Doxiciclina 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Enalapril Maleato 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Enalapril Maleato, Comprimidos 10 Mg</t>
+  </si>
+  <si>
+    <t>Eritromicina 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Escitalopram 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Espironolactona 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Espironolactona Comprimidos 25 Mg</t>
+  </si>
+  <si>
+    <t>Estradiol Micronizado 0,5 mg/aplicacion Gel Transdermico, frasco 35 g</t>
+  </si>
+  <si>
+    <t>Eszopiclona 3 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Etinilestradiol 30 mcg/Levonorgestrel 150 mcg, Comprimidos ,blister</t>
+  </si>
+  <si>
+    <t>Etonogestrel 68 mg Implante Subcutaneo</t>
+  </si>
+  <si>
+    <t>Fenitoina Sodica 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Fenitoina Sodica Prompt Comprimidos De Liberacion Rapida 100 Mg</t>
+  </si>
+  <si>
+    <t>Fenobarbital 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Ferroso Sulfato 125 mg /1 ml Solucion para gotas Orales , frasco 30 ml (1ml=25 gotas=125 mg)</t>
+  </si>
+  <si>
+    <t>Ferroso Sulfato gotas 125 mg /1 ml 30ml</t>
+  </si>
+  <si>
+    <t>Flucloxacilina 250 mg/5 ml Polvo Para Suspension Oral , frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Flucloxacilina 500 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Fluconazol 150 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Fluconazol Capsulas 150 Mg</t>
+  </si>
+  <si>
+    <t>Fluoxetina 20 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Fluoxetina Comprimidos 20 Mg</t>
+  </si>
+  <si>
+    <t>Fluticasona 27,5 mcg/dosis , Suspensión para nebulización nasal 120 dosis (prescribe dosis)</t>
+  </si>
+  <si>
+    <t>Fluticasona Furoato 27,5 mcg/dosis Suspensión Neb. Nasal Frasco 120 dosis</t>
+  </si>
+  <si>
+    <t>Fluticasona Propionato 125 mcg/dosis, Aerosol para Inhalacion , 120 dosis (prescribe dosis)</t>
+  </si>
+  <si>
+    <t>Fluticasona Propionato 250 mcg /Salmeterol 25 mcg/dosis , Aerosol para Inhalacion 120 dosis (prescribe dosis)</t>
+  </si>
+  <si>
+    <t>Fluticasona Propionato/Salmeterol 250/25 Aerosol Para Inhalacion (120 dos)</t>
+  </si>
+  <si>
+    <t>FUMARATO FERROSO 330 MG + VITAMINA B12 1 MG + ACIDO ASCORBICO 100 MG + ACIDO FOLICO 2 MG CAPSULAS</t>
+  </si>
+  <si>
+    <t>Fumarato Ferroso 330 mg/Acido Ascorbico 100 mg/Acido Folico 2 mg/Cianocobalamina 1 mg Capsulas con Microgranulos</t>
+  </si>
+  <si>
+    <t>Furosemida 40 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Furosemida Comprimidos 40 Mg</t>
+  </si>
+  <si>
+    <t>Gel lubricante intimo</t>
+  </si>
+  <si>
+    <t>Sachets</t>
+  </si>
+  <si>
+    <t>Gel lubricante intimo, tubo</t>
+  </si>
+  <si>
+    <t>Gemfibrozilo 600 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Gemfibrozilo Comprimidos Recubiertos 600 Mg</t>
+  </si>
+  <si>
+    <t>Gentamicina 0,3% Solucion Oftalmica , frasco 5 ml (prescribe frasco)</t>
+  </si>
+  <si>
+    <t>Gentamicina 0,3% Ungüento Oftalmico , pomo</t>
+  </si>
+  <si>
+    <t>Glibenclamida 5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Glibenclamida 5 Mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Haloperidol 5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Hidroclorotiazida 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Hidroclorotiazida cm 50 mg</t>
+  </si>
+  <si>
+    <t>Hidrocortisona 1 % Crema Topica , pomo</t>
+  </si>
+  <si>
+    <t>Hidroxido de aluminio 185 mg/hidroxido de magnesio 200 mg, Suspension Oral, frasco 180 ml</t>
+  </si>
+  <si>
+    <t>Hidroxido De Aluminio Gel Suspension Oral Al 6% (180 ml)</t>
+  </si>
+  <si>
+    <t>Ibuprofeno 200 mg/5 ml Suspension Oral , frasco 120 ml</t>
+  </si>
+  <si>
+    <t>Ibuprofeno 400 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Imipramina Clorhidrato 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Imipramina Clorhidrato Comprimidos 25 Mg</t>
+  </si>
+  <si>
+    <t>Inmunoglobulina anti-Rh 300 mcg, ampolla</t>
+  </si>
+  <si>
+    <t>Insulina Cristalina 100 U.I /ml ,frasco ampolla 10 ml</t>
+  </si>
+  <si>
+    <t>Insulina NPH 100 U.I/ml ,frasco ampolla 10 ml</t>
+  </si>
+  <si>
+    <t>Insulina NPH fco amp 100UI/ml fco 10 ml</t>
+  </si>
+  <si>
+    <t>Isosorbida Dinitrato 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Isosorbide Dinitrato Comprimidos 10 Mg</t>
+  </si>
+  <si>
+    <t>Ketorolaco 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Lactulosa 65% Solucion Oral , frasco 200 ml</t>
+  </si>
+  <si>
+    <t>Lagrimas Artificiales gel oftalmico, Pomo</t>
+  </si>
+  <si>
+    <t>Lagrimas Artificiales Solucion Oftalmica , frasco</t>
+  </si>
+  <si>
+    <t>Lagrimas Artificiales ungüento oftalmico, Pomo</t>
+  </si>
+  <si>
+    <t>Lamotrigina 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Lansoprazol 30 mg Capsula</t>
+  </si>
+  <si>
+    <t>Latanoprost 50 mcg/ Timolol 5 mg en 1 ml Solucion Oftalmica, frasco 2,5 ml (1 ml= 20 gotas) (prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Latanoprost 50 mcg/1 ml Solucion Oftalmica , frasco 2,5 ml (1 ml= 20 gotas) (prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Levetiracetam 1000 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>LEVETIRACETAM 500 mg</t>
+  </si>
+  <si>
+    <t>Levetiracetam 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Levodopa 200 mg/ Benserazida 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Levodopa 200mg + Benserazida 50mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Levofloxacino Hemihidrato 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Levonorgestrel 0,75 mg Comprimidos , blister</t>
+  </si>
+  <si>
+    <t>Levonorgestrel 20 mcg/24 hrs sistema intrauterino</t>
+  </si>
+  <si>
+    <t>Levonorgestrel 30 mcg Comprimidos , blister</t>
+  </si>
+  <si>
+    <t>Levonorgestrel cm 30 mcg blister 35 cm</t>
+  </si>
+  <si>
+    <t>Levotiroxina Sodica Comprimidos 100 Mcg</t>
+  </si>
+  <si>
+    <t>Levotiroxina Sodica Comprimidos 50 Mcg</t>
+  </si>
+  <si>
+    <t>Levotiroxina Sodico 100 mcg Comprimidos</t>
+  </si>
+  <si>
+    <t>Levotiroxina Sodico 50 mcg Comprimidos</t>
+  </si>
+  <si>
+    <t>Lidocaina Clorhidrato 2% Solucion Inyectable , ampollas</t>
+  </si>
+  <si>
+    <t>Loperamida Clorhidrato 2 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Loratadina 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Loratadina 10 Mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Loratadina 5 mg/5 ml Jarabe , frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Losartan Potasico 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Losartan Potasico Comprimidos Recubiertos 50 Mg</t>
+  </si>
+  <si>
+    <t>Lovastatina 20 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Lovastatina Comprimidos 20 Mg</t>
+  </si>
+  <si>
+    <t>Medroxiprogesterona Acetato 104 mg/0.65 ml jeringa prellenada</t>
+  </si>
+  <si>
+    <t>Meloxicam 15 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Meloxicam Comprimidos 15 Mg</t>
+  </si>
+  <si>
+    <t>Metamizol Sodico 300 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Metamizol Sodico Monohidrato 1 g/2 ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Metformina 500 mg + glibenclamida 5 mg comp.</t>
+  </si>
+  <si>
+    <t>Metformina 850 Mg Comprimido</t>
+  </si>
+  <si>
+    <t>Metformina Clorhidrato 850 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Metformina Clorhidrato 1000 mg Comprimidos de Liberacion Prolongada</t>
+  </si>
+  <si>
+    <t>Metformina Clorhidrato 500 mg/Glibenclamida 5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Metildopa 250 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Metildopa Comprimidos Ranurados 250 Mg</t>
+  </si>
+  <si>
+    <t>Metoclopramida Clorhidrato 10 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Metoclopramida Comprimidos 10 Mg</t>
+  </si>
+  <si>
+    <t>Metronidazol 0,75 % gel dermico , pomo</t>
+  </si>
+  <si>
+    <t>Metronidazol 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Metronidazol 500 mg Ovulos</t>
+  </si>
+  <si>
+    <t>Mupirocina 2 % Ungüento Topico ,pomo</t>
+  </si>
+  <si>
+    <t>Nistatina Suspension Oral 100.000 Ui/Ml. (20 ml)</t>
+  </si>
+  <si>
+    <t>Nitrofurantoina 100 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Nitrofurantoina Comprimidos 100 Mg</t>
+  </si>
+  <si>
+    <t>Novo Base II 1000 gr, frasco</t>
+  </si>
+  <si>
+    <t>Omeprazol 20 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Omeprazol Capsulas 20 Mg</t>
+  </si>
+  <si>
+    <t>Paracetamol 100 mg/1 ml Solucion para gotas Orales , frasco 15 ml (1ml=20 gotas=100 mg)</t>
+  </si>
+  <si>
+    <t>Paracetamol 500 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Paracetamol 500 Mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Paracetamol 80 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Pargeverina Clorhidrato 5 mg/1 ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Pargeverina Clorhidrato 5 mg/Metamizol Magnesico 300 mg en 1 ml Solucion para gotas Orales , frasco 15 ml, (1 ml = 24 gotas)</t>
+  </si>
+  <si>
+    <t>Pargeverina Clorhidrato 5mg/1 ml Solucion para gotas Orales , frasco 15 ml, (1 ml = 20 gotas=5mg)</t>
+  </si>
+  <si>
+    <t>Paroxetina 20 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Pasta Lassar</t>
+  </si>
+  <si>
+    <t>Pasta Lassar (30 g)</t>
+  </si>
+  <si>
+    <t>Piridoxina Clorhidrato 100 mg/1 ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Polivitaminico Comprimido</t>
+  </si>
+  <si>
+    <t>Polivitaminico Comprimidos</t>
+  </si>
+  <si>
+    <t>Polivitaminico Jarabe, frasco 100 ml (prescribe ml)</t>
+  </si>
+  <si>
+    <t>Pomada 6% Azufrada , pomo</t>
+  </si>
+  <si>
+    <t>Pramipexol Diclorhidrato 0,25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Pramipexol Diclorhidrato 1 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Prednisolona Acetato 1% Suspension Oftalmica , frasco 5 ml (1 ml= 20 gotas) (prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Prednisona 20 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Prednisona 20 mg/5 ml Suspension Oral , frasco 60 ml</t>
+  </si>
+  <si>
+    <t>Prednisona 5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Pregabalina 75 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Preservativos</t>
+  </si>
+  <si>
+    <t>Progesterona Micronizada 200 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Propanolol Comprimidos 40 Mg</t>
+  </si>
+  <si>
+    <t>Propranolol 40 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Quetiapina 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Quetiapina 25 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Quetiapina 25 mg.</t>
+  </si>
+  <si>
+    <t>Risperidona 1 mg/1 ml Solucion para Gotas Orales , frasco 30 ml (1 ml=22 gotas=1 mg)</t>
+  </si>
+  <si>
+    <t>Sacarina Comprimidos</t>
+  </si>
+  <si>
+    <t>Salbutamol 100 mcg/dosis Aerosol Para Inhalacion , 200 dosis (prescribe dosis)</t>
+  </si>
+  <si>
+    <t>Salbutamol Aerosol Para Inhalacion 100 Mcg/Dosis (200 dos)</t>
+  </si>
+  <si>
+    <t>Sales Para Rehidratacion Oral-60 Polvo Para Solucion oral, sobre</t>
+  </si>
+  <si>
+    <t>Sales Para Rehidratacion Oral-90 Polvo Para Solucion oral, sobre</t>
+  </si>
+  <si>
+    <t>Salicilato Metilo 5% Pomada, pomo</t>
+  </si>
+  <si>
+    <t>Sertralina 50 Mg Comp.</t>
+  </si>
+  <si>
+    <t>Sertralina 50 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Sifrol (Pramipexol) 0,25 mg.</t>
+  </si>
+  <si>
+    <t>Sucralosa 500 Comprimidos, frasco</t>
+  </si>
+  <si>
+    <t>Sulfadiazina de Plata 1 % Crema Topica, pomo</t>
+  </si>
+  <si>
+    <t>Terbinafina 250 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Terbinafina Comprimidos 250 Mg</t>
+  </si>
+  <si>
+    <t>Tiamina Clorhidrato 30 mg/1 ml Solucion Inyectable , ampolla</t>
+  </si>
+  <si>
+    <t>Tibolona 2,5 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Timolol 0,5% Solucion Oftalmica , frasco 10 ml (1 ml= 20 gotas) (prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Tramadol Clorhidrato 100 mg/1 ml Solucion para gotas Orales ,frasco 20 ml (1 ml= 30 gotas=100 mg)</t>
+  </si>
+  <si>
+    <t>Tramadol Clorhidrato 50 mg Capsulas</t>
+  </si>
+  <si>
+    <t>Tramadol Clorhidrato Capsulas 50 Mg</t>
+  </si>
+  <si>
+    <t>Trazodona 100 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Trihexifenidilo Clorhidrato 2 mg Comprimidos</t>
+  </si>
+  <si>
+    <t>Vaselina Liquida Medicinal (250 ml)</t>
+  </si>
+  <si>
+    <t>Vaselina Liquida Medicinal, frasco 200 ml</t>
+  </si>
+  <si>
+    <t>Vaselina solida, frasco</t>
+  </si>
+  <si>
+    <t>Venlafaxina 75 mg Capsulas de Liberacion Prolongada</t>
+  </si>
+  <si>
+    <t>Vitaminas ACD gotas fco 30 ml</t>
+  </si>
+  <si>
+    <t>Vitaminas ACD gotas, frasco 30 ml (20 gotas= 1 ml)(prescribe gotas)</t>
+  </si>
+  <si>
+    <t>Zopiclona 7,5 mg Comprimidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,7 +1496,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -939,12 +1796,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1086,7 +1941,7 @@
         <v>215</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>14</v>
@@ -1115,6 +1970,7286 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>500008</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>103</v>
+      </c>
+      <c r="E16" s="4">
+        <v>103</v>
+      </c>
+      <c r="F16" s="4">
+        <v>209</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>500012</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30021</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30021</v>
+      </c>
+      <c r="F17" s="4">
+        <v>24093</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>500013</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>90</v>
+      </c>
+      <c r="E18" s="4">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4">
+        <v>60</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>176</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6060</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6060</v>
+      </c>
+      <c r="F19" s="4">
+        <v>11613</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>500018</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>120</v>
+      </c>
+      <c r="E20" s="4">
+        <v>120</v>
+      </c>
+      <c r="F20" s="4">
+        <v>297</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>725168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>500020</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1049</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1049</v>
+      </c>
+      <c r="F22" s="4">
+        <v>556</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>232</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>90</v>
+      </c>
+      <c r="E23" s="4">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4">
+        <v>560</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>500024</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>564</v>
+      </c>
+      <c r="E24" s="4">
+        <v>564</v>
+      </c>
+      <c r="F24" s="4">
+        <v>410</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>252</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>55</v>
+      </c>
+      <c r="E25" s="4">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4">
+        <v>160</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>500030</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>285</v>
+      </c>
+      <c r="E26" s="4">
+        <v>285</v>
+      </c>
+      <c r="F26" s="4">
+        <v>765</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>500033</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>500610</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>210</v>
+      </c>
+      <c r="E28" s="4">
+        <v>210</v>
+      </c>
+      <c r="F28" s="4">
+        <v>50</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>270</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>360</v>
+      </c>
+      <c r="E29" s="4">
+        <v>360</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1285</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>549405</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>500046</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1810</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1810</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1904</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>500049</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1895</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1895</v>
+      </c>
+      <c r="F32" s="4">
+        <v>10570</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>500054</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>283</v>
+      </c>
+      <c r="E33" s="4">
+        <v>283</v>
+      </c>
+      <c r="F33" s="4">
+        <v>853</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>888</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4">
+        <v>75</v>
+      </c>
+      <c r="F34" s="4">
+        <v>525</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>500056</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1701</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1701</v>
+      </c>
+      <c r="F35" s="4">
+        <v>778</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>900</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>190</v>
+      </c>
+      <c r="E36" s="4">
+        <v>190</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1610</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>500057</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4318</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4318</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3645</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>500058</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>24514</v>
+      </c>
+      <c r="E38" s="4">
+        <v>24514</v>
+      </c>
+      <c r="F38" s="4">
+        <v>11589</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>927</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3600</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F39" s="4">
+        <v>7326</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>500063</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1015</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1355</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>500564</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>52</v>
+      </c>
+      <c r="E41" s="4">
+        <v>52</v>
+      </c>
+      <c r="F41" s="4">
+        <v>76</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>511151</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>686</v>
+      </c>
+      <c r="E42" s="4">
+        <v>686</v>
+      </c>
+      <c r="F42" s="4">
+        <v>425</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>18430</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4">
+        <v>115</v>
+      </c>
+      <c r="F43" s="4">
+        <v>991</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>1253</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>57</v>
+      </c>
+      <c r="E44" s="4">
+        <v>57</v>
+      </c>
+      <c r="F44" s="4">
+        <v>100</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>1447</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>720</v>
+      </c>
+      <c r="E45" s="4">
+        <v>720</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2154</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>500070</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5578</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5578</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2769</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>500072</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>54088</v>
+      </c>
+      <c r="E47" s="4">
+        <v>54088</v>
+      </c>
+      <c r="F47" s="4">
+        <v>51321</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>1497</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>11610</v>
+      </c>
+      <c r="E48" s="4">
+        <v>11610</v>
+      </c>
+      <c r="F48" s="4">
+        <v>13147</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>500076</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>568</v>
+      </c>
+      <c r="E49" s="4">
+        <v>568</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1350</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>534966</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>537089</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>500078</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>137</v>
+      </c>
+      <c r="E52" s="4">
+        <v>137</v>
+      </c>
+      <c r="F52" s="4">
+        <v>293</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>593556</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>15</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>500083</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4">
+        <v>18</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>28906</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>212</v>
+      </c>
+      <c r="E55" s="4">
+        <v>212</v>
+      </c>
+      <c r="F55" s="4">
+        <v>619</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>500089</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>26</v>
+      </c>
+      <c r="E56" s="4">
+        <v>26</v>
+      </c>
+      <c r="F56" s="4">
+        <v>86</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>500090</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>639547</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>511146</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>500098</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>141</v>
+      </c>
+      <c r="E60" s="4">
+        <v>141</v>
+      </c>
+      <c r="F60" s="4">
+        <v>161</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>2334</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>72</v>
+      </c>
+      <c r="E61" s="4">
+        <v>72</v>
+      </c>
+      <c r="F61" s="4">
+        <v>19</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>500101</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>131</v>
+      </c>
+      <c r="E62" s="4">
+        <v>131</v>
+      </c>
+      <c r="F62" s="4">
+        <v>208</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>505205</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1035</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1035</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2925</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>500107</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>14887</v>
+      </c>
+      <c r="E64" s="4">
+        <v>14887</v>
+      </c>
+      <c r="F64" s="4">
+        <v>9087</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>500109</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>6</v>
+      </c>
+      <c r="E65" s="4">
+        <v>6</v>
+      </c>
+      <c r="F65" s="4">
+        <v>70</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>500110</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1020</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1561</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>2689</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>300</v>
+      </c>
+      <c r="E67" s="4">
+        <v>300</v>
+      </c>
+      <c r="F67" s="4">
+        <v>485</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2714</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>920</v>
+      </c>
+      <c r="E68" s="4">
+        <v>920</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3358</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>500111</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>3995</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3995</v>
+      </c>
+      <c r="F69" s="4">
+        <v>4285</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>500112</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>332</v>
+      </c>
+      <c r="E70" s="4">
+        <v>332</v>
+      </c>
+      <c r="F70" s="4">
+        <v>504</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>500113</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>6037</v>
+      </c>
+      <c r="E71" s="4">
+        <v>6037</v>
+      </c>
+      <c r="F71" s="4">
+        <v>5368</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>2795</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>49</v>
+      </c>
+      <c r="E72" s="4">
+        <v>49</v>
+      </c>
+      <c r="F72" s="4">
+        <v>640</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>500117</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4</v>
+      </c>
+      <c r="E73" s="4">
+        <v>4</v>
+      </c>
+      <c r="F73" s="4">
+        <v>5</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>500114</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>102</v>
+      </c>
+      <c r="E74" s="4">
+        <v>102</v>
+      </c>
+      <c r="F74" s="4">
+        <v>94</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>500121</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>6392</v>
+      </c>
+      <c r="E75" s="4">
+        <v>6392</v>
+      </c>
+      <c r="F75" s="4">
+        <v>4964</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2974</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1461</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1461</v>
+      </c>
+      <c r="F76" s="4">
+        <v>3341</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>500122</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>150</v>
+      </c>
+      <c r="E77" s="4">
+        <v>150</v>
+      </c>
+      <c r="F77" s="4">
+        <v>53</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>500124</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>197</v>
+      </c>
+      <c r="E78" s="4">
+        <v>197</v>
+      </c>
+      <c r="F78" s="4">
+        <v>237</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>500125</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>594</v>
+      </c>
+      <c r="E79" s="4">
+        <v>594</v>
+      </c>
+      <c r="F79" s="4">
+        <v>572</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>3088</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>21</v>
+      </c>
+      <c r="E80" s="4">
+        <v>21</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1339</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>521470</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>500126</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>274</v>
+      </c>
+      <c r="E82" s="4">
+        <v>274</v>
+      </c>
+      <c r="F82" s="4">
+        <v>776</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>500127</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>120</v>
+      </c>
+      <c r="E83" s="4">
+        <v>120</v>
+      </c>
+      <c r="F83" s="4">
+        <v>191</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>500130</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>4</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>500129</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>252</v>
+      </c>
+      <c r="E85" s="4">
+        <v>252</v>
+      </c>
+      <c r="F85" s="4">
+        <v>266</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>500137</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4</v>
+      </c>
+      <c r="E86" s="4">
+        <v>4</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>500139</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>986</v>
+      </c>
+      <c r="E87" s="4">
+        <v>986</v>
+      </c>
+      <c r="F87" s="4">
+        <v>234</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>500140</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1649</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1649</v>
+      </c>
+      <c r="F88" s="4">
+        <v>4790</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>3559</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>60</v>
+      </c>
+      <c r="E89" s="4">
+        <v>60</v>
+      </c>
+      <c r="F89" s="4">
+        <v>8367</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>505206</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>8</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8</v>
+      </c>
+      <c r="F90" s="4">
+        <v>190</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>512090</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4077</v>
+      </c>
+      <c r="E91" s="4">
+        <v>4077</v>
+      </c>
+      <c r="F91" s="4">
+        <v>3280</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>3573</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>561</v>
+      </c>
+      <c r="E92" s="4">
+        <v>561</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2530</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>500639</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>65</v>
+      </c>
+      <c r="E93" s="4">
+        <v>65</v>
+      </c>
+      <c r="F93" s="4">
+        <v>90</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>500148</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2767</v>
+      </c>
+      <c r="E94" s="4">
+        <v>2767</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2779</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>3640</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>807</v>
+      </c>
+      <c r="E95" s="4">
+        <v>807</v>
+      </c>
+      <c r="F95" s="4">
+        <v>958</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>500157</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>447</v>
+      </c>
+      <c r="E96" s="4">
+        <v>447</v>
+      </c>
+      <c r="F96" s="4">
+        <v>919</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>512112</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>100</v>
+      </c>
+      <c r="E97" s="4">
+        <v>100</v>
+      </c>
+      <c r="F97" s="4">
+        <v>307</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>500160</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
+        <v>140</v>
+      </c>
+      <c r="E98" s="4">
+        <v>140</v>
+      </c>
+      <c r="F98" s="4">
+        <v>160</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>500161</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4">
+        <v>300</v>
+      </c>
+      <c r="E99" s="4">
+        <v>300</v>
+      </c>
+      <c r="F99" s="4">
+        <v>300</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>18417</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="4">
+        <v>40</v>
+      </c>
+      <c r="E100" s="4">
+        <v>40</v>
+      </c>
+      <c r="F100" s="4">
+        <v>470</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>500164</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
+        <v>171</v>
+      </c>
+      <c r="E101" s="4">
+        <v>171</v>
+      </c>
+      <c r="F101" s="4">
+        <v>91</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>500165</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4">
+        <v>110</v>
+      </c>
+      <c r="E102" s="4">
+        <v>110</v>
+      </c>
+      <c r="F102" s="4">
+        <v>76</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>500166</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1</v>
+      </c>
+      <c r="D103" s="4">
+        <v>37</v>
+      </c>
+      <c r="E103" s="4">
+        <v>37</v>
+      </c>
+      <c r="F103" s="4">
+        <v>86</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>18414</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4">
+        <v>13</v>
+      </c>
+      <c r="E104" s="4">
+        <v>13</v>
+      </c>
+      <c r="F104" s="4">
+        <v>7</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>500167</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4">
+        <v>222</v>
+      </c>
+      <c r="E105" s="4">
+        <v>222</v>
+      </c>
+      <c r="F105" s="4">
+        <v>914</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>518363</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4">
+        <v>5</v>
+      </c>
+      <c r="E106" s="4">
+        <v>5</v>
+      </c>
+      <c r="F106" s="4">
+        <v>18</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>500173</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4">
+        <v>78</v>
+      </c>
+      <c r="E107" s="4">
+        <v>78</v>
+      </c>
+      <c r="F107" s="4">
+        <v>102</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>4221</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4">
+        <v>87</v>
+      </c>
+      <c r="E108" s="4">
+        <v>87</v>
+      </c>
+      <c r="F108" s="4">
+        <v>27</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>500187</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4">
+        <v>2</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2</v>
+      </c>
+      <c r="F109" s="4">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>500186</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4">
+        <v>3</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3</v>
+      </c>
+      <c r="F110" s="4">
+        <v>4</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>500189</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+      <c r="D111" s="4">
+        <v>4078</v>
+      </c>
+      <c r="E111" s="4">
+        <v>4078</v>
+      </c>
+      <c r="F111" s="4">
+        <v>3460</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>500195</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>644</v>
+      </c>
+      <c r="E112" s="4">
+        <v>644</v>
+      </c>
+      <c r="F112" s="4">
+        <v>632</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>683431</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="4">
+        <v>8</v>
+      </c>
+      <c r="E113" s="4">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4">
+        <v>52</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>500198</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1233</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1233</v>
+      </c>
+      <c r="F114" s="4">
+        <v>2062</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>500199</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1</v>
+      </c>
+      <c r="D115" s="4">
+        <v>26</v>
+      </c>
+      <c r="E115" s="4">
+        <v>26</v>
+      </c>
+      <c r="F115" s="4">
+        <v>46</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>512096</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+      <c r="D116" s="4">
+        <v>167</v>
+      </c>
+      <c r="E116" s="4">
+        <v>167</v>
+      </c>
+      <c r="F116" s="4">
+        <v>192</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>4747</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1</v>
+      </c>
+      <c r="D117" s="4">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4">
+        <v>10</v>
+      </c>
+      <c r="F117" s="4">
+        <v>196</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>500203</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1</v>
+      </c>
+      <c r="D118" s="4">
+        <v>184</v>
+      </c>
+      <c r="E118" s="4">
+        <v>184</v>
+      </c>
+      <c r="F118" s="4">
+        <v>472</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>4772</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>30</v>
+      </c>
+      <c r="E119" s="4">
+        <v>30</v>
+      </c>
+      <c r="F119" s="4">
+        <v>175</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>500208</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1</v>
+      </c>
+      <c r="D120" s="4">
+        <v>7</v>
+      </c>
+      <c r="E120" s="4">
+        <v>7</v>
+      </c>
+      <c r="F120" s="4">
+        <v>15</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>500209</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4">
+        <v>5</v>
+      </c>
+      <c r="E121" s="4">
+        <v>5</v>
+      </c>
+      <c r="F121" s="4">
+        <v>269</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>500210</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4">
+        <v>105</v>
+      </c>
+      <c r="E122" s="4">
+        <v>105</v>
+      </c>
+      <c r="F122" s="4">
+        <v>754</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>500631</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2</v>
+      </c>
+      <c r="F123" s="4">
+        <v>14</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>512121</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>500690</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+      <c r="D125" s="4">
+        <v>16</v>
+      </c>
+      <c r="E125" s="4">
+        <v>16</v>
+      </c>
+      <c r="F125" s="4">
+        <v>21</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>500217</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1</v>
+      </c>
+      <c r="D126" s="4">
+        <v>150</v>
+      </c>
+      <c r="E126" s="4">
+        <v>150</v>
+      </c>
+      <c r="F126" s="4">
+        <v>182</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>500218</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+      <c r="D127" s="4">
+        <v>31750</v>
+      </c>
+      <c r="E127" s="4">
+        <v>31750</v>
+      </c>
+      <c r="F127" s="4">
+        <v>32492</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>5407</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1</v>
+      </c>
+      <c r="D128" s="4">
+        <v>6465</v>
+      </c>
+      <c r="E128" s="4">
+        <v>6465</v>
+      </c>
+      <c r="F128" s="4">
+        <v>13728</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>500228</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4">
+        <v>42</v>
+      </c>
+      <c r="E129" s="4">
+        <v>42</v>
+      </c>
+      <c r="F129" s="4">
+        <v>169</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>500231</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1</v>
+      </c>
+      <c r="D130" s="4">
+        <v>300</v>
+      </c>
+      <c r="E130" s="4">
+        <v>300</v>
+      </c>
+      <c r="F130" s="4">
+        <v>481</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>500234</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="4">
+        <v>1</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2218</v>
+      </c>
+      <c r="E131" s="4">
+        <v>2218</v>
+      </c>
+      <c r="F131" s="4">
+        <v>1884</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>5615</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1</v>
+      </c>
+      <c r="D132" s="4">
+        <v>180</v>
+      </c>
+      <c r="E132" s="4">
+        <v>180</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1156</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>597636</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1</v>
+      </c>
+      <c r="D133" s="4">
+        <v>13</v>
+      </c>
+      <c r="E133" s="4">
+        <v>13</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>518306</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1</v>
+      </c>
+      <c r="D134" s="4">
+        <v>140</v>
+      </c>
+      <c r="E134" s="4">
+        <v>140</v>
+      </c>
+      <c r="F134" s="4">
+        <v>125</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>500238</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1</v>
+      </c>
+      <c r="D135" s="4">
+        <v>139</v>
+      </c>
+      <c r="E135" s="4">
+        <v>139</v>
+      </c>
+      <c r="F135" s="4">
+        <v>73</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>500241</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+      <c r="D136" s="4">
+        <v>16</v>
+      </c>
+      <c r="E136" s="4">
+        <v>16</v>
+      </c>
+      <c r="F136" s="4">
+        <v>19</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>500245</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1223</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1223</v>
+      </c>
+      <c r="F137" s="4">
+        <v>522</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>6083</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4">
+        <v>435</v>
+      </c>
+      <c r="E138" s="4">
+        <v>435</v>
+      </c>
+      <c r="F138" s="4">
+        <v>998</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>500247</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+      <c r="D139" s="4">
+        <v>375</v>
+      </c>
+      <c r="E139" s="4">
+        <v>375</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2491</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>500579</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1</v>
+      </c>
+      <c r="D140" s="4">
+        <v>16</v>
+      </c>
+      <c r="E140" s="4">
+        <v>16</v>
+      </c>
+      <c r="F140" s="4">
+        <v>18</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>19048</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2</v>
+      </c>
+      <c r="E141" s="4">
+        <v>2</v>
+      </c>
+      <c r="F141" s="4">
+        <v>38</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>500257</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4">
+        <v>2</v>
+      </c>
+      <c r="E142" s="4">
+        <v>2</v>
+      </c>
+      <c r="F142" s="4">
+        <v>22</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>500256</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1</v>
+      </c>
+      <c r="D143" s="4">
+        <v>84</v>
+      </c>
+      <c r="E143" s="4">
+        <v>84</v>
+      </c>
+      <c r="F143" s="4">
+        <v>164</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>500258</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1</v>
+      </c>
+      <c r="D144" s="4">
+        <v>116</v>
+      </c>
+      <c r="E144" s="4">
+        <v>116</v>
+      </c>
+      <c r="F144" s="4">
+        <v>182</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>6379</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4">
+        <v>13</v>
+      </c>
+      <c r="E145" s="4">
+        <v>13</v>
+      </c>
+      <c r="F145" s="4">
+        <v>108</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>500264</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1</v>
+      </c>
+      <c r="D146" s="4">
+        <v>4671</v>
+      </c>
+      <c r="E146" s="4">
+        <v>4671</v>
+      </c>
+      <c r="F146" s="4">
+        <v>3073</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>6489</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1</v>
+      </c>
+      <c r="D147" s="4">
+        <v>455</v>
+      </c>
+      <c r="E147" s="4">
+        <v>455</v>
+      </c>
+      <c r="F147" s="4">
+        <v>3347</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>631372</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+      <c r="D148" s="4">
+        <v>5</v>
+      </c>
+      <c r="E148" s="4">
+        <v>5</v>
+      </c>
+      <c r="F148" s="4">
+        <v>208</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>134632</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>500268</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1</v>
+      </c>
+      <c r="D150" s="4">
+        <v>3</v>
+      </c>
+      <c r="E150" s="4">
+        <v>3</v>
+      </c>
+      <c r="F150" s="4">
+        <v>13</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>500267</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151" s="4">
+        <v>128</v>
+      </c>
+      <c r="E151" s="4">
+        <v>128</v>
+      </c>
+      <c r="F151" s="4">
+        <v>81</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>6533</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1</v>
+      </c>
+      <c r="D152" s="4">
+        <v>69</v>
+      </c>
+      <c r="E152" s="4">
+        <v>69</v>
+      </c>
+      <c r="F152" s="4">
+        <v>88</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>36089</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1</v>
+      </c>
+      <c r="D153" s="4">
+        <v>480</v>
+      </c>
+      <c r="E153" s="4">
+        <v>480</v>
+      </c>
+      <c r="F153" s="4">
+        <v>1982</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>539804</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1</v>
+      </c>
+      <c r="D154" s="4">
+        <v>3769</v>
+      </c>
+      <c r="E154" s="4">
+        <v>3769</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1275</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>500271</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+      <c r="D155" s="4">
+        <v>5563</v>
+      </c>
+      <c r="E155" s="4">
+        <v>5563</v>
+      </c>
+      <c r="F155" s="4">
+        <v>2420</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>6752</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1</v>
+      </c>
+      <c r="D156" s="4">
+        <v>765</v>
+      </c>
+      <c r="E156" s="4">
+        <v>765</v>
+      </c>
+      <c r="F156" s="4">
+        <v>3248</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>166109</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1</v>
+      </c>
+      <c r="D157" s="4">
+        <v>4</v>
+      </c>
+      <c r="E157" s="4">
+        <v>4</v>
+      </c>
+      <c r="F157" s="4">
+        <v>4</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>703296</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1</v>
+      </c>
+      <c r="D158" s="4">
+        <v>22</v>
+      </c>
+      <c r="E158" s="4">
+        <v>22</v>
+      </c>
+      <c r="F158" s="4">
+        <v>16</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>500278</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1</v>
+      </c>
+      <c r="D159" s="4">
+        <v>6770</v>
+      </c>
+      <c r="E159" s="4">
+        <v>6770</v>
+      </c>
+      <c r="F159" s="4">
+        <v>4565</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>6898</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F160" s="4">
+        <v>2517</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>500282</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+      <c r="D161" s="4">
+        <v>9</v>
+      </c>
+      <c r="E161" s="4">
+        <v>9</v>
+      </c>
+      <c r="F161" s="4">
+        <v>7</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>500283</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="D162" s="4">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4">
+        <v>6</v>
+      </c>
+      <c r="F162" s="4">
+        <v>9</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>500284</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1</v>
+      </c>
+      <c r="D163" s="4">
+        <v>6827</v>
+      </c>
+      <c r="E163" s="4">
+        <v>6827</v>
+      </c>
+      <c r="F163" s="4">
+        <v>5187</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>7057</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1215</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1215</v>
+      </c>
+      <c r="F164" s="4">
+        <v>2036</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>500296</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1</v>
+      </c>
+      <c r="D165" s="4">
+        <v>133</v>
+      </c>
+      <c r="E165" s="4">
+        <v>133</v>
+      </c>
+      <c r="F165" s="4">
+        <v>573</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>500302</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1</v>
+      </c>
+      <c r="D166" s="4">
+        <v>12254</v>
+      </c>
+      <c r="E166" s="4">
+        <v>12254</v>
+      </c>
+      <c r="F166" s="4">
+        <v>7310</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>19055</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1</v>
+      </c>
+      <c r="D167" s="4">
+        <v>2340</v>
+      </c>
+      <c r="E167" s="4">
+        <v>2340</v>
+      </c>
+      <c r="F167" s="4">
+        <v>4041</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>500304</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1</v>
+      </c>
+      <c r="D168" s="4">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4">
+        <v>6</v>
+      </c>
+      <c r="F168" s="4">
+        <v>19</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>558962</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1</v>
+      </c>
+      <c r="D169" s="4">
+        <v>10</v>
+      </c>
+      <c r="E169" s="4">
+        <v>10</v>
+      </c>
+      <c r="F169" s="4">
+        <v>13</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>7488</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+      <c r="D170" s="4">
+        <v>3</v>
+      </c>
+      <c r="E170" s="4">
+        <v>3</v>
+      </c>
+      <c r="F170" s="4">
+        <v>16</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>500313</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1</v>
+      </c>
+      <c r="D171" s="4">
+        <v>90</v>
+      </c>
+      <c r="E171" s="4">
+        <v>90</v>
+      </c>
+      <c r="F171" s="4">
+        <v>127</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>500309</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
+      </c>
+      <c r="D172" s="4">
+        <v>973</v>
+      </c>
+      <c r="E172" s="4">
+        <v>973</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1423</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>500314</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4">
+        <v>150</v>
+      </c>
+      <c r="E173" s="4">
+        <v>150</v>
+      </c>
+      <c r="F173" s="4">
+        <v>216</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>7756</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174" s="4">
+        <v>30</v>
+      </c>
+      <c r="E174" s="4">
+        <v>30</v>
+      </c>
+      <c r="F174" s="4">
+        <v>120</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>663165</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1</v>
+      </c>
+      <c r="F175" s="4">
+        <v>0</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>500316</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1</v>
+      </c>
+      <c r="D176" s="4">
+        <v>3</v>
+      </c>
+      <c r="E176" s="4">
+        <v>3</v>
+      </c>
+      <c r="F176" s="4">
+        <v>3</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>500317</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+      <c r="D177" s="4">
+        <v>479</v>
+      </c>
+      <c r="E177" s="4">
+        <v>479</v>
+      </c>
+      <c r="F177" s="4">
+        <v>123</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>18447</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1</v>
+      </c>
+      <c r="D178" s="4">
+        <v>45</v>
+      </c>
+      <c r="E178" s="4">
+        <v>45</v>
+      </c>
+      <c r="F178" s="4">
+        <v>205</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>500319</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C179" s="4">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1648</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1648</v>
+      </c>
+      <c r="F179" s="4">
+        <v>299</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>8036</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1</v>
+      </c>
+      <c r="D180" s="4">
+        <v>390</v>
+      </c>
+      <c r="E180" s="4">
+        <v>390</v>
+      </c>
+      <c r="F180" s="4">
+        <v>445</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>500323</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1</v>
+      </c>
+      <c r="D181" s="4">
+        <v>290</v>
+      </c>
+      <c r="E181" s="4">
+        <v>290</v>
+      </c>
+      <c r="F181" s="4">
+        <v>850</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>500328</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1</v>
+      </c>
+      <c r="D182" s="4">
+        <v>52</v>
+      </c>
+      <c r="E182" s="4">
+        <v>52</v>
+      </c>
+      <c r="F182" s="4">
+        <v>13</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>638555</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1</v>
+      </c>
+      <c r="D183" s="4">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4">
+        <v>6</v>
+      </c>
+      <c r="F183" s="4">
+        <v>4</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>500329</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4">
+        <v>120</v>
+      </c>
+      <c r="E184" s="4">
+        <v>120</v>
+      </c>
+      <c r="F184" s="4">
+        <v>67</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>638554</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1</v>
+      </c>
+      <c r="E185" s="4">
+        <v>1</v>
+      </c>
+      <c r="F185" s="4">
+        <v>0</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>500331</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4">
+        <v>300</v>
+      </c>
+      <c r="E186" s="4">
+        <v>300</v>
+      </c>
+      <c r="F186" s="4">
+        <v>400</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>535009</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="D187" s="4">
+        <v>345</v>
+      </c>
+      <c r="E187" s="4">
+        <v>345</v>
+      </c>
+      <c r="F187" s="4">
+        <v>283</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>500694</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1</v>
+      </c>
+      <c r="D188" s="4">
+        <v>2</v>
+      </c>
+      <c r="E188" s="4">
+        <v>2</v>
+      </c>
+      <c r="F188" s="4">
+        <v>3</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>500695</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+      <c r="D189" s="4">
+        <v>49</v>
+      </c>
+      <c r="E189" s="4">
+        <v>49</v>
+      </c>
+      <c r="F189" s="4">
+        <v>26</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>512127</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4">
+        <v>390</v>
+      </c>
+      <c r="E190" s="4">
+        <v>390</v>
+      </c>
+      <c r="F190" s="4">
+        <v>360</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>77716</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4">
+        <v>150</v>
+      </c>
+      <c r="E191" s="4">
+        <v>150</v>
+      </c>
+      <c r="F191" s="4">
+        <v>5</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>500336</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C192" s="4">
+        <v>1</v>
+      </c>
+      <c r="D192" s="4">
+        <v>315</v>
+      </c>
+      <c r="E192" s="4">
+        <v>315</v>
+      </c>
+      <c r="F192" s="4">
+        <v>555</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>500343</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1433</v>
+      </c>
+      <c r="E193" s="4">
+        <v>1433</v>
+      </c>
+      <c r="F193" s="4">
+        <v>653</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>39580</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4">
+        <v>120</v>
+      </c>
+      <c r="E194" s="4">
+        <v>120</v>
+      </c>
+      <c r="F194" s="4">
+        <v>345</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>500345</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4">
+        <v>28</v>
+      </c>
+      <c r="E195" s="4">
+        <v>28</v>
+      </c>
+      <c r="F195" s="4">
+        <v>38</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>543228</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" s="4">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1</v>
+      </c>
+      <c r="E196" s="4">
+        <v>1</v>
+      </c>
+      <c r="F196" s="4">
+        <v>8</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>616659</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="4">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4">
+        <v>10</v>
+      </c>
+      <c r="E197" s="4">
+        <v>10</v>
+      </c>
+      <c r="F197" s="4">
+        <v>14</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>500349</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C198" s="4">
+        <v>1</v>
+      </c>
+      <c r="D198" s="4">
+        <v>92</v>
+      </c>
+      <c r="E198" s="4">
+        <v>92</v>
+      </c>
+      <c r="F198" s="4">
+        <v>48</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>21546</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4">
+        <v>32</v>
+      </c>
+      <c r="E199" s="4">
+        <v>32</v>
+      </c>
+      <c r="F199" s="4">
+        <v>70</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>8553</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C200" s="4">
+        <v>1</v>
+      </c>
+      <c r="D200" s="4">
+        <v>1934</v>
+      </c>
+      <c r="E200" s="4">
+        <v>1934</v>
+      </c>
+      <c r="F200" s="4">
+        <v>7291</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>8556</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C201" s="4">
+        <v>1</v>
+      </c>
+      <c r="D201" s="4">
+        <v>988</v>
+      </c>
+      <c r="E201" s="4">
+        <v>988</v>
+      </c>
+      <c r="F201" s="4">
+        <v>2690</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>500350</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4">
+        <v>13948</v>
+      </c>
+      <c r="E202" s="4">
+        <v>13948</v>
+      </c>
+      <c r="F202" s="4">
+        <v>8143</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>500352</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C203" s="4">
+        <v>1</v>
+      </c>
+      <c r="D203" s="4">
+        <v>6218</v>
+      </c>
+      <c r="E203" s="4">
+        <v>6218</v>
+      </c>
+      <c r="F203" s="4">
+        <v>2903</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>500354</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C204" s="4">
+        <v>1</v>
+      </c>
+      <c r="D204" s="4">
+        <v>21</v>
+      </c>
+      <c r="E204" s="4">
+        <v>21</v>
+      </c>
+      <c r="F204" s="4">
+        <v>75</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>500358</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C205" s="4">
+        <v>1</v>
+      </c>
+      <c r="D205" s="4">
+        <v>55</v>
+      </c>
+      <c r="E205" s="4">
+        <v>55</v>
+      </c>
+      <c r="F205" s="4">
+        <v>153</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>500359</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C206" s="4">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4">
+        <v>5274</v>
+      </c>
+      <c r="E206" s="4">
+        <v>5274</v>
+      </c>
+      <c r="F206" s="4">
+        <v>2502</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>8811</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C207" s="4">
+        <v>1</v>
+      </c>
+      <c r="D207" s="4">
+        <v>1215</v>
+      </c>
+      <c r="E207" s="4">
+        <v>1215</v>
+      </c>
+      <c r="F207" s="4">
+        <v>2467</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>500361</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C208" s="4">
+        <v>1</v>
+      </c>
+      <c r="D208" s="4">
+        <v>29</v>
+      </c>
+      <c r="E208" s="4">
+        <v>29</v>
+      </c>
+      <c r="F208" s="4">
+        <v>47</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>500362</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C209" s="4">
+        <v>1</v>
+      </c>
+      <c r="D209" s="4">
+        <v>72755</v>
+      </c>
+      <c r="E209" s="4">
+        <v>72755</v>
+      </c>
+      <c r="F209" s="4">
+        <v>34443</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>8872</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C210" s="4">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4">
+        <v>13650</v>
+      </c>
+      <c r="E210" s="4">
+        <v>13650</v>
+      </c>
+      <c r="F210" s="4">
+        <v>20834</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>500363</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C211" s="4">
+        <v>1</v>
+      </c>
+      <c r="D211" s="4">
+        <v>459</v>
+      </c>
+      <c r="E211" s="4">
+        <v>459</v>
+      </c>
+      <c r="F211" s="4">
+        <v>746</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>8908</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C212" s="4">
+        <v>1</v>
+      </c>
+      <c r="D212" s="4">
+        <v>270</v>
+      </c>
+      <c r="E212" s="4">
+        <v>270</v>
+      </c>
+      <c r="F212" s="4">
+        <v>245</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>177647</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C213" s="4">
+        <v>1</v>
+      </c>
+      <c r="D213" s="4">
+        <v>36</v>
+      </c>
+      <c r="E213" s="4">
+        <v>36</v>
+      </c>
+      <c r="F213" s="4">
+        <v>18</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>500369</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4">
+        <v>1656</v>
+      </c>
+      <c r="E214" s="4">
+        <v>1656</v>
+      </c>
+      <c r="F214" s="4">
+        <v>1303</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>9167</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C215" s="4">
+        <v>1</v>
+      </c>
+      <c r="D215" s="4">
+        <v>389</v>
+      </c>
+      <c r="E215" s="4">
+        <v>389</v>
+      </c>
+      <c r="F215" s="4">
+        <v>940</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>500372</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C216" s="4">
+        <v>1</v>
+      </c>
+      <c r="D216" s="4">
+        <v>45</v>
+      </c>
+      <c r="E216" s="4">
+        <v>45</v>
+      </c>
+      <c r="F216" s="4">
+        <v>391</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>500373</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C217" s="4">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4">
+        <v>19</v>
+      </c>
+      <c r="E217" s="4">
+        <v>19</v>
+      </c>
+      <c r="F217" s="4">
+        <v>102</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>25733</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C218" s="4">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4">
+        <v>960</v>
+      </c>
+      <c r="E218" s="4">
+        <v>960</v>
+      </c>
+      <c r="F218" s="4">
+        <v>3436</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>20480</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C219" s="4">
+        <v>1</v>
+      </c>
+      <c r="D219" s="4">
+        <v>9090</v>
+      </c>
+      <c r="E219" s="4">
+        <v>9090</v>
+      </c>
+      <c r="F219" s="4">
+        <v>41915</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>500375</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C220" s="4">
+        <v>1</v>
+      </c>
+      <c r="D220" s="4">
+        <v>52192</v>
+      </c>
+      <c r="E220" s="4">
+        <v>52192</v>
+      </c>
+      <c r="F220" s="4">
+        <v>35115</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>500643</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C221" s="4">
+        <v>1</v>
+      </c>
+      <c r="D221" s="4">
+        <v>3074</v>
+      </c>
+      <c r="E221" s="4">
+        <v>3074</v>
+      </c>
+      <c r="F221" s="4">
+        <v>1096</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>500648</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C222" s="4">
+        <v>1</v>
+      </c>
+      <c r="D222" s="4">
+        <v>7665</v>
+      </c>
+      <c r="E222" s="4">
+        <v>7665</v>
+      </c>
+      <c r="F222" s="4">
+        <v>6420</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>500376</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C223" s="4">
+        <v>1</v>
+      </c>
+      <c r="D223" s="4">
+        <v>4380</v>
+      </c>
+      <c r="E223" s="4">
+        <v>4380</v>
+      </c>
+      <c r="F223" s="4">
+        <v>3094</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>9363</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C224" s="4">
+        <v>1</v>
+      </c>
+      <c r="D224" s="4">
+        <v>210</v>
+      </c>
+      <c r="E224" s="4">
+        <v>210</v>
+      </c>
+      <c r="F224" s="4">
+        <v>2228</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>500379</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C225" s="4">
+        <v>1</v>
+      </c>
+      <c r="D225" s="4">
+        <v>1271</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1271</v>
+      </c>
+      <c r="F225" s="4">
+        <v>2482</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>9386</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C226" s="4">
+        <v>1</v>
+      </c>
+      <c r="D226" s="4">
+        <v>354</v>
+      </c>
+      <c r="E226" s="4">
+        <v>354</v>
+      </c>
+      <c r="F226" s="4">
+        <v>1502</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>500386</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C227" s="4">
+        <v>1</v>
+      </c>
+      <c r="D227" s="4">
+        <v>5</v>
+      </c>
+      <c r="E227" s="4">
+        <v>5</v>
+      </c>
+      <c r="F227" s="4">
+        <v>13</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>500385</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C228" s="4">
+        <v>1</v>
+      </c>
+      <c r="D228" s="4">
+        <v>279</v>
+      </c>
+      <c r="E228" s="4">
+        <v>279</v>
+      </c>
+      <c r="F228" s="4">
+        <v>777</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>500387</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C229" s="4">
+        <v>1</v>
+      </c>
+      <c r="D229" s="4">
+        <v>76</v>
+      </c>
+      <c r="E229" s="4">
+        <v>76</v>
+      </c>
+      <c r="F229" s="4">
+        <v>34</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>546626</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C230" s="4">
+        <v>1</v>
+      </c>
+      <c r="D230" s="4">
+        <v>1</v>
+      </c>
+      <c r="E230" s="4">
+        <v>1</v>
+      </c>
+      <c r="F230" s="4">
+        <v>12</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>10311</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C231" s="4">
+        <v>1</v>
+      </c>
+      <c r="D231" s="4">
+        <v>2</v>
+      </c>
+      <c r="E231" s="4">
+        <v>2</v>
+      </c>
+      <c r="F231" s="4">
+        <v>4</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>500425</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C232" s="4">
+        <v>1</v>
+      </c>
+      <c r="D232" s="4">
+        <v>406</v>
+      </c>
+      <c r="E232" s="4">
+        <v>406</v>
+      </c>
+      <c r="F232" s="4">
+        <v>385</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>10357</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C233" s="4">
+        <v>1</v>
+      </c>
+      <c r="D233" s="4">
+        <v>30</v>
+      </c>
+      <c r="E233" s="4">
+        <v>30</v>
+      </c>
+      <c r="F233" s="4">
+        <v>553</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>724381</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C234" s="4">
+        <v>1</v>
+      </c>
+      <c r="D234" s="4">
+        <v>1</v>
+      </c>
+      <c r="E234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F234" s="4">
+        <v>2</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>500434</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C235" s="4">
+        <v>1</v>
+      </c>
+      <c r="D235" s="4">
+        <v>23592</v>
+      </c>
+      <c r="E235" s="4">
+        <v>23592</v>
+      </c>
+      <c r="F235" s="4">
+        <v>23347</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>10739</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C236" s="4">
+        <v>1</v>
+      </c>
+      <c r="D236" s="4">
+        <v>4530</v>
+      </c>
+      <c r="E236" s="4">
+        <v>4530</v>
+      </c>
+      <c r="F236" s="4">
+        <v>13959</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>500449</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C237" s="4">
+        <v>1</v>
+      </c>
+      <c r="D237" s="4">
+        <v>33</v>
+      </c>
+      <c r="E237" s="4">
+        <v>33</v>
+      </c>
+      <c r="F237" s="4">
+        <v>45</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>500447</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" s="4">
+        <v>1</v>
+      </c>
+      <c r="D238" s="4">
+        <v>102809</v>
+      </c>
+      <c r="E238" s="4">
+        <v>102809</v>
+      </c>
+      <c r="F238" s="4">
+        <v>61843</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>11093</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C239" s="4">
+        <v>1</v>
+      </c>
+      <c r="D239" s="4">
+        <v>20141</v>
+      </c>
+      <c r="E239" s="4">
+        <v>20141</v>
+      </c>
+      <c r="F239" s="4">
+        <v>60163</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>500448</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C240" s="4">
+        <v>1</v>
+      </c>
+      <c r="D240" s="4">
+        <v>449</v>
+      </c>
+      <c r="E240" s="4">
+        <v>449</v>
+      </c>
+      <c r="F240" s="4">
+        <v>273</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>500454</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C241" s="4">
+        <v>1</v>
+      </c>
+      <c r="D241" s="4">
+        <v>4</v>
+      </c>
+      <c r="E241" s="4">
+        <v>4</v>
+      </c>
+      <c r="F241" s="4">
+        <v>57</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>512103</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C242" s="4">
+        <v>1</v>
+      </c>
+      <c r="D242" s="4">
+        <v>2</v>
+      </c>
+      <c r="E242" s="4">
+        <v>2</v>
+      </c>
+      <c r="F242" s="4">
+        <v>16</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>500455</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C243" s="4">
+        <v>1</v>
+      </c>
+      <c r="D243" s="4">
+        <v>6</v>
+      </c>
+      <c r="E243" s="4">
+        <v>6</v>
+      </c>
+      <c r="F243" s="4">
+        <v>16</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>500456</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C244" s="4">
+        <v>1</v>
+      </c>
+      <c r="D244" s="4">
+        <v>330</v>
+      </c>
+      <c r="E244" s="4">
+        <v>330</v>
+      </c>
+      <c r="F244" s="4">
+        <v>609</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>500459</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C245" s="4">
+        <v>1</v>
+      </c>
+      <c r="D245" s="4">
+        <v>18</v>
+      </c>
+      <c r="E245" s="4">
+        <v>18</v>
+      </c>
+      <c r="F245" s="4">
+        <v>18</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>11231</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C246" s="4">
+        <v>1</v>
+      </c>
+      <c r="D246" s="4">
+        <v>13</v>
+      </c>
+      <c r="E246" s="4">
+        <v>13</v>
+      </c>
+      <c r="F246" s="4">
+        <v>9</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>500467</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C247" s="4">
+        <v>1</v>
+      </c>
+      <c r="D247" s="4">
+        <v>197</v>
+      </c>
+      <c r="E247" s="4">
+        <v>197</v>
+      </c>
+      <c r="F247" s="4">
+        <v>249</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>20532</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C248" s="4">
+        <v>1</v>
+      </c>
+      <c r="D248" s="4">
+        <v>1035</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1035</v>
+      </c>
+      <c r="F248" s="4">
+        <v>1725</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>500469</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C249" s="4">
+        <v>1</v>
+      </c>
+      <c r="D249" s="4">
+        <v>3360</v>
+      </c>
+      <c r="E249" s="4">
+        <v>3360</v>
+      </c>
+      <c r="F249" s="4">
+        <v>3472</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>512094</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C250" s="4">
+        <v>1</v>
+      </c>
+      <c r="D250" s="4">
+        <v>7</v>
+      </c>
+      <c r="E250" s="4">
+        <v>7</v>
+      </c>
+      <c r="F250" s="4">
+        <v>34</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>500471</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C251" s="4">
+        <v>1</v>
+      </c>
+      <c r="D251" s="4">
+        <v>9</v>
+      </c>
+      <c r="E251" s="4">
+        <v>9</v>
+      </c>
+      <c r="F251" s="4">
+        <v>28</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>500480</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C252" s="4">
+        <v>1</v>
+      </c>
+      <c r="D252" s="4">
+        <v>513</v>
+      </c>
+      <c r="E252" s="4">
+        <v>513</v>
+      </c>
+      <c r="F252" s="4">
+        <v>595</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>500479</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C253" s="4">
+        <v>1</v>
+      </c>
+      <c r="D253" s="4">
+        <v>345</v>
+      </c>
+      <c r="E253" s="4">
+        <v>345</v>
+      </c>
+      <c r="F253" s="4">
+        <v>231</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>500697</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C254" s="4">
+        <v>1</v>
+      </c>
+      <c r="D254" s="4">
+        <v>3</v>
+      </c>
+      <c r="E254" s="4">
+        <v>3</v>
+      </c>
+      <c r="F254" s="4">
+        <v>1</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>500483</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C255" s="4">
+        <v>1</v>
+      </c>
+      <c r="D255" s="4">
+        <v>551</v>
+      </c>
+      <c r="E255" s="4">
+        <v>551</v>
+      </c>
+      <c r="F255" s="4">
+        <v>1225</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>500485</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C256" s="4">
+        <v>1</v>
+      </c>
+      <c r="D256" s="4">
+        <v>15</v>
+      </c>
+      <c r="E256" s="4">
+        <v>15</v>
+      </c>
+      <c r="F256" s="4">
+        <v>56</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>500484</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
+      <c r="D257" s="4">
+        <v>129</v>
+      </c>
+      <c r="E257" s="4">
+        <v>129</v>
+      </c>
+      <c r="F257" s="4">
+        <v>119</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>500491</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C258" s="4">
+        <v>1</v>
+      </c>
+      <c r="D258" s="4">
+        <v>1080</v>
+      </c>
+      <c r="E258" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F258" s="4">
+        <v>741</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>500571</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C259" s="4">
+        <v>1</v>
+      </c>
+      <c r="D259" s="4">
+        <v>1645</v>
+      </c>
+      <c r="E259" s="4">
+        <v>1645</v>
+      </c>
+      <c r="F259" s="4">
+        <v>1823</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>15533</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C260" s="4">
+        <v>1</v>
+      </c>
+      <c r="D260" s="4">
+        <v>195</v>
+      </c>
+      <c r="E260" s="4">
+        <v>195</v>
+      </c>
+      <c r="F260" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>512099</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C261" s="4">
+        <v>1</v>
+      </c>
+      <c r="D261" s="4">
+        <v>280</v>
+      </c>
+      <c r="E261" s="4">
+        <v>280</v>
+      </c>
+      <c r="F261" s="4">
+        <v>108</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H261" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>11983</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C262" s="4">
+        <v>1</v>
+      </c>
+      <c r="D262" s="4">
+        <v>285</v>
+      </c>
+      <c r="E262" s="4">
+        <v>285</v>
+      </c>
+      <c r="F262" s="4">
+        <v>139</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>500497</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C263" s="4">
+        <v>1</v>
+      </c>
+      <c r="D263" s="4">
+        <v>1654</v>
+      </c>
+      <c r="E263" s="4">
+        <v>1654</v>
+      </c>
+      <c r="F263" s="4">
+        <v>2351</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>500498</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C264" s="4">
+        <v>1</v>
+      </c>
+      <c r="D264" s="4">
+        <v>358</v>
+      </c>
+      <c r="E264" s="4">
+        <v>358</v>
+      </c>
+      <c r="F264" s="4">
+        <v>1833</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>500499</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C265" s="4">
+        <v>1</v>
+      </c>
+      <c r="D265" s="4">
+        <v>2386</v>
+      </c>
+      <c r="E265" s="4">
+        <v>2386</v>
+      </c>
+      <c r="F265" s="4">
+        <v>1168</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H265" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>40786</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C266" s="4">
+        <v>1</v>
+      </c>
+      <c r="D266" s="4">
+        <v>375</v>
+      </c>
+      <c r="E266" s="4">
+        <v>375</v>
+      </c>
+      <c r="F266" s="4">
+        <v>832</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>500511</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4">
+        <v>13</v>
+      </c>
+      <c r="E267" s="4">
+        <v>13</v>
+      </c>
+      <c r="F267" s="4">
+        <v>12</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H267" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>42969</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+      <c r="D268" s="4">
+        <v>15</v>
+      </c>
+      <c r="E268" s="4">
+        <v>15</v>
+      </c>
+      <c r="F268" s="4">
+        <v>28</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>500513</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4">
+        <v>299</v>
+      </c>
+      <c r="E269" s="4">
+        <v>299</v>
+      </c>
+      <c r="F269" s="4">
+        <v>102</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H269" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>12647</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C270" s="4">
+        <v>1</v>
+      </c>
+      <c r="D270" s="4">
+        <v>53</v>
+      </c>
+      <c r="E270" s="4">
+        <v>53</v>
+      </c>
+      <c r="F270" s="4">
+        <v>94</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H270" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>500515</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C271" s="4">
+        <v>1</v>
+      </c>
+      <c r="D271" s="4">
+        <v>73</v>
+      </c>
+      <c r="E271" s="4">
+        <v>73</v>
+      </c>
+      <c r="F271" s="4">
+        <v>171</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H271" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>500516</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C272" s="4">
+        <v>1</v>
+      </c>
+      <c r="D272" s="4">
+        <v>85</v>
+      </c>
+      <c r="E272" s="4">
+        <v>85</v>
+      </c>
+      <c r="F272" s="4">
+        <v>62</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H272" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>500472</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4">
+        <v>902</v>
+      </c>
+      <c r="E273" s="4">
+        <v>902</v>
+      </c>
+      <c r="F273" s="4">
+        <v>434</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>21481</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4">
+        <v>930</v>
+      </c>
+      <c r="E274" s="4">
+        <v>930</v>
+      </c>
+      <c r="F274" s="4">
+        <v>4118</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H274" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>500519</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C275" s="4">
+        <v>1</v>
+      </c>
+      <c r="D275" s="4">
+        <v>10449</v>
+      </c>
+      <c r="E275" s="4">
+        <v>10449</v>
+      </c>
+      <c r="F275" s="4">
+        <v>4862</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H275" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>45417</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C276" s="4">
+        <v>1</v>
+      </c>
+      <c r="D276" s="4">
+        <v>120</v>
+      </c>
+      <c r="E276" s="4">
+        <v>120</v>
+      </c>
+      <c r="F276" s="4">
+        <v>110</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>542803</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C277" s="4">
+        <v>1</v>
+      </c>
+      <c r="D277" s="4">
+        <v>50</v>
+      </c>
+      <c r="E277" s="4">
+        <v>50</v>
+      </c>
+      <c r="F277" s="4">
+        <v>6</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H277" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>500524</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4">
+        <v>16</v>
+      </c>
+      <c r="E278" s="4">
+        <v>16</v>
+      </c>
+      <c r="F278" s="4">
+        <v>32</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>533754</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+      <c r="D279" s="4">
+        <v>3290</v>
+      </c>
+      <c r="E279" s="4">
+        <v>3290</v>
+      </c>
+      <c r="F279" s="4">
+        <v>1877</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H279" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>13711</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4">
+        <v>330</v>
+      </c>
+      <c r="E280" s="4">
+        <v>330</v>
+      </c>
+      <c r="F280" s="4">
+        <v>1779</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H280" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>500530</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C281" s="4">
+        <v>1</v>
+      </c>
+      <c r="D281" s="4">
+        <v>197</v>
+      </c>
+      <c r="E281" s="4">
+        <v>197</v>
+      </c>
+      <c r="F281" s="4">
+        <v>154</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>532864</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C282" s="4">
+        <v>1</v>
+      </c>
+      <c r="D282" s="4">
+        <v>150</v>
+      </c>
+      <c r="E282" s="4">
+        <v>150</v>
+      </c>
+      <c r="F282" s="4">
+        <v>150</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H282" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>500699</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C283" s="4">
+        <v>1</v>
+      </c>
+      <c r="D283" s="4">
+        <v>4</v>
+      </c>
+      <c r="E283" s="4">
+        <v>4</v>
+      </c>
+      <c r="F283" s="4">
+        <v>36</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H283" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>526148</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C284" s="4">
+        <v>1</v>
+      </c>
+      <c r="D284" s="4">
+        <v>123</v>
+      </c>
+      <c r="E284" s="4">
+        <v>123</v>
+      </c>
+      <c r="F284" s="4">
+        <v>84</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>500546</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C285" s="4">
+        <v>1</v>
+      </c>
+      <c r="D285" s="4">
+        <v>5376</v>
+      </c>
+      <c r="E285" s="4">
+        <v>5376</v>
+      </c>
+      <c r="F285" s="4">
+        <v>3410</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H285" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>14035</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C286" s="4">
+        <v>1</v>
+      </c>
+      <c r="D286" s="4">
+        <v>1126</v>
+      </c>
+      <c r="E286" s="4">
+        <v>1126</v>
+      </c>
+      <c r="F286" s="4">
+        <v>1449</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H286" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>500598</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C287" s="4">
+        <v>1</v>
+      </c>
+      <c r="D287" s="4">
+        <v>465</v>
+      </c>
+      <c r="E287" s="4">
+        <v>465</v>
+      </c>
+      <c r="F287" s="4">
+        <v>342</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H287" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>500549</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C288" s="4">
+        <v>1</v>
+      </c>
+      <c r="D288" s="4">
+        <v>145</v>
+      </c>
+      <c r="E288" s="4">
+        <v>145</v>
+      </c>
+      <c r="F288" s="4">
+        <v>200</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H288" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>14541</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C289" s="4">
+        <v>1</v>
+      </c>
+      <c r="D289" s="4">
+        <v>11</v>
+      </c>
+      <c r="E289" s="4">
+        <v>11</v>
+      </c>
+      <c r="F289" s="4">
+        <v>23</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H289" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>500555</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C290" s="4">
+        <v>1</v>
+      </c>
+      <c r="D290" s="4">
+        <v>50</v>
+      </c>
+      <c r="E290" s="4">
+        <v>50</v>
+      </c>
+      <c r="F290" s="4">
+        <v>32</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H290" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>535043</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C291" s="4">
+        <v>1</v>
+      </c>
+      <c r="D291" s="4">
+        <v>2</v>
+      </c>
+      <c r="E291" s="4">
+        <v>2</v>
+      </c>
+      <c r="F291" s="4">
+        <v>9</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>500592</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C292" s="4">
+        <v>1</v>
+      </c>
+      <c r="D292" s="4">
+        <v>1335</v>
+      </c>
+      <c r="E292" s="4">
+        <v>1335</v>
+      </c>
+      <c r="F292" s="4">
+        <v>1147</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H292" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>19067</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C293" s="4">
+        <v>1</v>
+      </c>
+      <c r="D293" s="4">
+        <v>24</v>
+      </c>
+      <c r="E293" s="4">
+        <v>24</v>
+      </c>
+      <c r="F293" s="4">
+        <v>20</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H293" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>500673</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C294" s="4">
+        <v>1</v>
+      </c>
+      <c r="D294" s="4">
+        <v>50</v>
+      </c>
+      <c r="E294" s="4">
+        <v>50</v>
+      </c>
+      <c r="F294" s="4">
+        <v>39</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H294" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>500563</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C295" s="4">
+        <v>1</v>
+      </c>
+      <c r="D295" s="4">
+        <v>8889</v>
+      </c>
+      <c r="E295" s="4">
+        <v>8889</v>
+      </c>
+      <c r="F295" s="4">
+        <v>7086</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H295" s="4" t="s">
         <v>14</v>
       </c>
     </row>
